--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\CheckLists\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\03_PizzaShop\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D103FB-AE7D-449B-8B66-7EE0908ED241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E569ED-514B-4342-9B4F-6BA385C13A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -773,6 +773,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -814,26 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,19 +1166,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1191,10 +1191,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1220,17 +1220,17 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1239,19 +1239,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1271,13 +1271,13 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1286,13 +1286,13 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1301,13 +1301,13 @@
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1316,13 +1316,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1483,19 +1483,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1508,10 +1508,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1588,11 +1588,11 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1601,11 +1601,11 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1614,11 +1614,11 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1805,19 +1805,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1830,10 +1830,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1859,17 +1859,17 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="41"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1878,19 +1878,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1913,7 +1913,7 @@
       <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1928,7 +1928,7 @@
       <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2152,8 +2152,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2174,19 +2174,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2199,10 +2199,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2210,15 +2210,15 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2226,17 +2226,17 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="D5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2245,10 +2245,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2278,10 +2278,10 @@
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2350,7 +2350,7 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2518,11 +2518,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6">
